--- a/data/trans_orig/Q20C_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>898</v>
+        <v>926</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6355</v>
+        <v>6441</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4651133581145677</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1226200856600627</v>
+        <v>0.1264390601330646</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8675123771301421</v>
+        <v>0.879257052089056</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>3407</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6793</v>
+        <v>6853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3342309418992365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08656433981247356</v>
+        <v>0.08722358774394214</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6664390429531477</v>
+        <v>0.6723052618027126</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5347</v>
+        <v>4980</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2789506933165929</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7298997142008442</v>
+        <v>0.6798773542146092</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5396</v>
+        <v>5533</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2004542577503963</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5293792390301064</v>
+        <v>0.542789053952122</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5202</v>
+        <v>5156</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2559359485688394</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.710186251056097</v>
+        <v>0.7039110753883552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -951,19 +951,19 @@
         <v>4743</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1736</v>
+        <v>1762</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8159</v>
+        <v>8189</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4653148003503672</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1703318641158615</v>
+        <v>0.1728821224043509</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8004269504278958</v>
+        <v>0.8033709249814939</v>
       </c>
     </row>
     <row r="8">
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5006</v>
+        <v>4226</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3370816315597493</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8369089061750257</v>
+        <v>0.7064703008637002</v>
       </c>
     </row>
     <row r="12">
@@ -1262,7 +1262,7 @@
         <v>3966</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>976</v>
+        <v>1756</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>5982</v>
@@ -1271,7 +1271,7 @@
         <v>0.6629183684402506</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1630910938249744</v>
+        <v>0.2935296991363001</v>
       </c>
       <c r="W12" s="6" t="n">
         <v>1</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4673</v>
+        <v>4639</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2833215452714679</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7145491025094577</v>
+        <v>0.7093065145552028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5523</v>
+        <v>5545</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1983048032972733</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5911113524703138</v>
+        <v>0.5934686535763561</v>
       </c>
     </row>
     <row r="15">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4167</v>
+        <v>4822</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.104403165827426</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4459439622678928</v>
+        <v>0.5160550393314151</v>
       </c>
     </row>
     <row r="16">
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4731</v>
+        <v>4768</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2980618768815659</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7233223566189878</v>
+        <v>0.7290466952023712</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1534,19 +1534,19 @@
         <v>2945</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6682</v>
+        <v>5841</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3151809493237666</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1036780713170919</v>
+        <v>0.1021429195647115</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7151370516795919</v>
+        <v>0.6250620635088305</v>
       </c>
     </row>
     <row r="17">
@@ -1563,19 +1563,19 @@
         <v>2738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5540</v>
+        <v>4694</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4186165778469663</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1332579727110069</v>
+        <v>0.131557840088977</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8471585510801282</v>
+        <v>0.7177210344844955</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1605,19 +1605,19 @@
         <v>3570</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6420</v>
+        <v>6439</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3821110815515342</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09184285731616905</v>
+        <v>0.09262925111438021</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6870387714982576</v>
+        <v>0.6890542930703496</v>
       </c>
     </row>
     <row r="18">
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5458</v>
+        <v>5592</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1531833046268959</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4496099390603198</v>
+        <v>0.4606506576125672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1730,19 +1730,19 @@
         <v>3678</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>907</v>
+        <v>879</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7293</v>
+        <v>7152</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3111381520633038</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07673017712957611</v>
+        <v>0.0743465631738093</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.616991359904893</v>
+        <v>0.6050571755373464</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1751,19 +1751,19 @@
         <v>5537</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2024</v>
+        <v>2531</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10693</v>
+        <v>10154</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2311113275347976</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0844606850274054</v>
+        <v>0.1056594698873731</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4463169542651734</v>
+        <v>0.4238167134177183</v>
       </c>
     </row>
     <row r="20">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4274</v>
+        <v>4350</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06979249129259631</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3520612986733108</v>
+        <v>0.3583478166732639</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4682</v>
+        <v>5275</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1496154594736334</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.396114921500108</v>
+        <v>0.4462946196897437</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1822,19 +1822,19 @@
         <v>2616</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6869</v>
+        <v>7014</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1091736574546091</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03540261118093595</v>
+        <v>0.03530373000114997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2867126989276775</v>
+        <v>0.2927387429461076</v>
       </c>
     </row>
     <row r="21">
@@ -1851,19 +1851,19 @@
         <v>2977</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6829</v>
+        <v>6858</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2452482125127169</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07154953238908252</v>
+        <v>0.07020428540171156</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5625644536970755</v>
+        <v>0.5649880372830063</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4229</v>
+        <v>5114</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1356152760730092</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3577969336446921</v>
+        <v>0.4326284591265141</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1893,19 +1893,19 @@
         <v>4580</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1674</v>
+        <v>1685</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9090</v>
+        <v>9304</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1911601099885215</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06988302420098298</v>
+        <v>0.07034679797228775</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.379394535972272</v>
+        <v>0.3883114551515499</v>
       </c>
     </row>
     <row r="22">
@@ -1922,19 +1922,19 @@
         <v>6455</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2776</v>
+        <v>2975</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9368</v>
+        <v>10084</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5317759915677909</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2286625901613568</v>
+        <v>0.2450610737790491</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7717615895163591</v>
+        <v>0.8306718703558522</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -1943,19 +1943,19 @@
         <v>4771</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1926</v>
+        <v>2020</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8412</v>
+        <v>8386</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4036311123900537</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1629194950642104</v>
+        <v>0.1709309761416879</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7116766748900297</v>
+        <v>0.7094508430079373</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -1964,19 +1964,19 @@
         <v>11226</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6506</v>
+        <v>6415</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15945</v>
+        <v>15871</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4685549050220718</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2715552887288642</v>
+        <v>0.2677680914886705</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6655290530629115</v>
+        <v>0.6624240190769578</v>
       </c>
     </row>
     <row r="23">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3617</v>
+        <v>3603</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3885747643646055</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8029475155709536</v>
+        <v>0.7997003946691509</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5435</v>
+        <v>5311</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1307227747158216</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4058586113591105</v>
+        <v>0.3966219746483057</v>
       </c>
     </row>
     <row r="25">
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3666</v>
+        <v>3622</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2075761719228442</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8137307844321213</v>
+        <v>0.8039609622059198</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2152,19 +2152,19 @@
         <v>4932</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1950</v>
+        <v>1988</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7936</v>
+        <v>7776</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.555031344459072</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2194801631135469</v>
+        <v>0.2236848204276368</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8930863766534608</v>
+        <v>0.8750331448663002</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -2173,19 +2173,19 @@
         <v>5867</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2886</v>
+        <v>1991</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9714</v>
+        <v>9527</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4381418590660328</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2154997522961395</v>
+        <v>0.1487115335712147</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7254346866673994</v>
+        <v>0.7114631741193788</v>
       </c>
     </row>
     <row r="26">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3667</v>
+        <v>3664</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4038490637125503</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8139188384834883</v>
+        <v>0.8134265171031139</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5419</v>
+        <v>5579</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.13586129367206</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4046499970360258</v>
+        <v>0.4165971081989368</v>
       </c>
     </row>
     <row r="27">
@@ -2278,19 +2278,19 @@
         <v>3954</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>950</v>
+        <v>1110</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6936</v>
+        <v>6898</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.444968655540928</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1069136233465392</v>
+        <v>0.1249668551336998</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7805198368864531</v>
+        <v>0.7763151795723631</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -2299,19 +2299,19 @@
         <v>3954</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>967</v>
+        <v>1020</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7740</v>
+        <v>7922</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2952740725460857</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07223214558643826</v>
+        <v>0.07615476861013054</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5780221774816429</v>
+        <v>0.5915551925391971</v>
       </c>
     </row>
     <row r="28">
@@ -2416,19 +2416,19 @@
         <v>5013</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1939</v>
+        <v>1949</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9264</v>
+        <v>8994</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2698793351428865</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1043791715584404</v>
+        <v>0.1049301059867433</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4987722403209529</v>
+        <v>0.4842300717449506</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2437,19 +2437,19 @@
         <v>5013</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2000</v>
+        <v>1959</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9804</v>
+        <v>9779</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2576455980673632</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1027733153356083</v>
+        <v>0.1006957956773709</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5039030670967218</v>
+        <v>0.5025958669441055</v>
       </c>
     </row>
     <row r="30">
@@ -2479,19 +2479,19 @@
         <v>2820</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6857</v>
+        <v>6669</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1517995979517298</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04814706521877402</v>
+        <v>0.04717088011888371</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3691877224953957</v>
+        <v>0.3590490831623978</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2500,19 +2500,19 @@
         <v>2820</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6651</v>
+        <v>6760</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1449184620969657</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04513930266249854</v>
+        <v>0.04549986917792592</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3418443090848634</v>
+        <v>0.3474270483252635</v>
       </c>
     </row>
     <row r="31">
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5022</v>
+        <v>4939</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05252153353885035</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2703662220261855</v>
+        <v>0.2659280132506032</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6299</v>
+        <v>5149</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05014071163643464</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3237331213983404</v>
+        <v>0.2646358332755687</v>
       </c>
     </row>
     <row r="32">
@@ -2605,19 +2605,19 @@
         <v>9766</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5529</v>
+        <v>5759</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13908</v>
+        <v>13733</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5257995333665333</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2976800746369338</v>
+        <v>0.3100447470430489</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7487730452341259</v>
+        <v>0.7393686329316674</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>11</v>
@@ -2626,19 +2626,19 @@
         <v>10648</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5879</v>
+        <v>6638</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14577</v>
+        <v>14673</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5472952281992364</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3021507887436731</v>
+        <v>0.3412029503119068</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7492462940292819</v>
+        <v>0.754138342458782</v>
       </c>
     </row>
     <row r="33">
@@ -2730,19 +2730,19 @@
         <v>8870</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2662610094263413</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -2751,19 +2751,19 @@
         <v>8690</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4480</v>
+        <v>4620</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14874</v>
+        <v>14949</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1773090782634331</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09139629209161486</v>
+        <v>0.09425922117981216</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3034770822376806</v>
+        <v>0.3049938693188232</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>18</v>
@@ -2772,19 +2772,19 @@
         <v>17560</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11310</v>
+        <v>11380</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26295</v>
+        <v>25246</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2133025384103329</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.137384250497102</v>
+        <v>0.1382380243743739</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3194107345516055</v>
+        <v>0.3066642005008935</v>
       </c>
     </row>
     <row r="35">
@@ -2801,19 +2801,19 @@
         <v>3826</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>959</v>
+        <v>995</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8088</v>
+        <v>8599</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1148394599023754</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02879666249462089</v>
+        <v>0.02986460200530949</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2427979413746257</v>
+        <v>0.2581469714718018</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>11</v>
@@ -2822,19 +2822,19 @@
         <v>10495</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5612</v>
+        <v>5744</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16950</v>
+        <v>16230</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2141366276093082</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1145064184447785</v>
+        <v>0.1171997327500351</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3458221935930584</v>
+        <v>0.3311382252029786</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>15</v>
@@ -2843,19 +2843,19 @@
         <v>14321</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>8605</v>
+        <v>8522</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>21686</v>
+        <v>21583</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.173957076678436</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1045215575360742</v>
+        <v>0.1035194389042259</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2634211474162651</v>
+        <v>0.2621731078008193</v>
       </c>
     </row>
     <row r="36">
@@ -2872,19 +2872,19 @@
         <v>7818</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3976</v>
+        <v>3825</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13436</v>
+        <v>13118</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2346977693506905</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1193664147939</v>
+        <v>0.1148196215680411</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4033333122359573</v>
+        <v>0.3937948721674372</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -2893,19 +2893,19 @@
         <v>4518</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1798</v>
+        <v>1696</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9147</v>
+        <v>10168</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0921835903943046</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03668452049170678</v>
+        <v>0.03459530586391395</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1866204114835412</v>
+        <v>0.2074576914533448</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -2914,19 +2914,19 @@
         <v>12336</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6870</v>
+        <v>7426</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19971</v>
+        <v>19933</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1498504488151793</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08345230003986091</v>
+        <v>0.09019960610724559</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2425861544335825</v>
+        <v>0.2421308604350181</v>
       </c>
     </row>
     <row r="37">
@@ -2943,19 +2943,19 @@
         <v>12799</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7866</v>
+        <v>8040</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18795</v>
+        <v>18259</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3842017613205927</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2361283563301741</v>
+        <v>0.2413465017351882</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5642112530473179</v>
+        <v>0.5481109888688576</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>26</v>
@@ -2964,19 +2964,19 @@
         <v>25309</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>18771</v>
+        <v>18573</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>32196</v>
+        <v>31991</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.516370703732954</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3829729654161865</v>
+        <v>0.3789406508093999</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.656887928652059</v>
+        <v>0.6526956968062866</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>40</v>
@@ -2985,19 +2985,19 @@
         <v>38107</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>29879</v>
+        <v>29656</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>47328</v>
+        <v>46867</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4628899360960518</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3629484324119337</v>
+        <v>0.3602303177427729</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5748999209868203</v>
+        <v>0.569293510753857</v>
       </c>
     </row>
     <row r="38">
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6657</v>
+        <v>6042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4133091473166141</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8949636573944579</v>
+        <v>0.8122696771131507</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -3373,19 +3373,19 @@
         <v>5204</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1738</v>
+        <v>1144</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9910</v>
+        <v>9755</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3850970979587384</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1285757504697468</v>
+        <v>0.08466825255447095</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7333006892518906</v>
+        <v>0.7218377394260336</v>
       </c>
     </row>
     <row r="5">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4008</v>
+        <v>4064</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1623269422855776</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6596410486170275</v>
+        <v>0.6689041571937943</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4803</v>
+        <v>4700</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07298746451402006</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3553729740966219</v>
+        <v>0.3477508513994306</v>
       </c>
     </row>
     <row r="6">
@@ -3486,19 +3486,19 @@
         <v>3404</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>360</v>
+        <v>832</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6368</v>
+        <v>6405</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4576804641501451</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04834909601531081</v>
+        <v>0.1118557381380271</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8561196424342822</v>
+        <v>0.8610592897194074</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -3507,19 +3507,19 @@
         <v>4328</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>997</v>
+        <v>1048</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8412</v>
+        <v>8916</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3202731883438223</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07376577503947408</v>
+        <v>0.07752835025061813</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6224579935644122</v>
+        <v>0.6597876993392012</v>
       </c>
     </row>
     <row r="7">
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5436</v>
+        <v>5420</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3350272271463809</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8947228982171274</v>
+        <v>0.8919574887730071</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3614</v>
+        <v>4801</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1290103885332408</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4859455482108512</v>
+        <v>0.6454266647100819</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8599</v>
+        <v>8209</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2216422491834191</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6363294857685085</v>
+        <v>0.6074699874549255</v>
       </c>
     </row>
     <row r="8">
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5156</v>
+        <v>5333</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3635335947217462</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8427162816173921</v>
+        <v>0.8716496268303434</v>
       </c>
     </row>
     <row r="10">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4782</v>
+        <v>5058</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3131855898702784</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7815894474361181</v>
+        <v>0.8268049027754645</v>
       </c>
     </row>
     <row r="11">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5017</v>
+        <v>4397</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3232808154079754</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8199582911695525</v>
+        <v>0.7186914113880322</v>
       </c>
     </row>
     <row r="13">
@@ -4009,19 +4009,19 @@
         <v>3777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7625</v>
+        <v>8206</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2548240224238472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06148256577599036</v>
+        <v>0.06137095845056637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5144420578418776</v>
+        <v>0.5536297239894381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4030,19 +4030,19 @@
         <v>3060</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5316</v>
+        <v>5319</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4828035757014972</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1480969125718431</v>
+        <v>0.1486792672847791</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8387032558049979</v>
+        <v>0.8392089036522909</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -4051,19 +4051,19 @@
         <v>6837</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2891</v>
+        <v>2824</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11445</v>
+        <v>11405</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3231056887702577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1366450642831808</v>
+        <v>0.1334766398566039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5408588408894908</v>
+        <v>0.5389932687342236</v>
       </c>
     </row>
     <row r="15">
@@ -4080,19 +4080,19 @@
         <v>2950</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6931</v>
+        <v>6958</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.199046875151328</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05844325418199425</v>
+        <v>0.056942008207882</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4675980156814339</v>
+        <v>0.4694094355959491</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4114,19 +4114,19 @@
         <v>2950</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>887</v>
+        <v>849</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7045</v>
+        <v>7286</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1394307730887619</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04191013888715527</v>
+        <v>0.04013383418158353</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3329431591138081</v>
+        <v>0.3443082339136808</v>
       </c>
     </row>
     <row r="16">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8450</v>
+        <v>8483</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2050559499205666</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.570130124429851</v>
+        <v>0.5723067835337319</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10157</v>
+        <v>9014</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1436400827801907</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4800230339025431</v>
+        <v>0.4259998962850478</v>
       </c>
     </row>
     <row r="17">
@@ -4206,19 +4206,19 @@
         <v>5055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1912</v>
+        <v>1886</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9607</v>
+        <v>8953</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3410731525042583</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1290172345961465</v>
+        <v>0.1272373212195277</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6481787829334467</v>
+        <v>0.6040373461029069</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -4227,19 +4227,19 @@
         <v>3278</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5399</v>
+        <v>5396</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5171964242985028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1612967441950021</v>
+        <v>0.1607910963477091</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8519030874281569</v>
+        <v>0.8513207327152209</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -4248,19 +4248,19 @@
         <v>8333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4258</v>
+        <v>4290</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13307</v>
+        <v>13332</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3938234553607897</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2012407948234302</v>
+        <v>0.2027363641391499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6288774717374226</v>
+        <v>0.6300653678284496</v>
       </c>
     </row>
     <row r="18">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5821</v>
+        <v>4561</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04822400526550781</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2680334242325401</v>
+        <v>0.2100071340431663</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4373,19 +4373,19 @@
         <v>4246</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8723</v>
+        <v>8577</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2820498439051886</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07092312112262583</v>
+        <v>0.07145365932788919</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5794210263722639</v>
+        <v>0.5697502735409912</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -4394,19 +4394,19 @@
         <v>5293</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10950</v>
+        <v>10821</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1439499250582584</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05307390469630027</v>
+        <v>0.05275751536482631</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2977609846906462</v>
+        <v>0.2942536739012814</v>
       </c>
     </row>
     <row r="20">
@@ -4423,19 +4423,19 @@
         <v>7302</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3169</v>
+        <v>3245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13034</v>
+        <v>13389</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3362271539044634</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1459290126136701</v>
+        <v>0.1493960825937716</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6001324707552766</v>
+        <v>0.6164772328363383</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6090</v>
+        <v>6211</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08768139417815213</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.404572541548006</v>
+        <v>0.4125522897259764</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -4465,19 +4465,19 @@
         <v>8622</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3955</v>
+        <v>3856</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15929</v>
+        <v>15871</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2344750481542842</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1075597082302803</v>
+        <v>0.1048641646805052</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4331626033595841</v>
+        <v>0.4315951333491954</v>
       </c>
     </row>
     <row r="21">
@@ -4494,19 +4494,19 @@
         <v>4812</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1771</v>
+        <v>1927</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9521</v>
+        <v>9849</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2215454222372351</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08156755505196298</v>
+        <v>0.08870889126119286</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4384069964010161</v>
+        <v>0.4534964120848147</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -4515,19 +4515,19 @@
         <v>3049</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>905</v>
+        <v>105</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6921</v>
+        <v>7255</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2025479245536866</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06014862357019513</v>
+        <v>0.006965376705142657</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4597417434288446</v>
+        <v>0.4819245930620902</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -4536,19 +4536,19 @@
         <v>7861</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3606</v>
+        <v>3823</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13089</v>
+        <v>14266</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2137680399338162</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09807129780690978</v>
+        <v>0.1039623053486044</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3559277003768047</v>
+        <v>0.387938517053276</v>
       </c>
     </row>
     <row r="22">
@@ -4565,19 +4565,19 @@
         <v>8557</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4413</v>
+        <v>3720</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13694</v>
+        <v>13619</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3940034185927936</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2032051907406158</v>
+        <v>0.1712872681436623</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6305370255362984</v>
+        <v>0.627100243160831</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -4586,19 +4586,19 @@
         <v>6439</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3129</v>
+        <v>2987</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10718</v>
+        <v>10317</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4277208373629726</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2078440193325209</v>
+        <v>0.1984468944209643</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7119591010971384</v>
+        <v>0.6853537626660873</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -4607,19 +4607,19 @@
         <v>14996</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9076</v>
+        <v>9017</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21323</v>
+        <v>21237</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4078069868536411</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2468014365083282</v>
+        <v>0.2452137695767307</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5798504916764032</v>
+        <v>0.5775197106432146</v>
       </c>
     </row>
     <row r="23">
@@ -4711,19 +4711,19 @@
         <v>3451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>940</v>
+        <v>996</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7644</v>
+        <v>7503</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.258629319114581</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07042450985431212</v>
+        <v>0.07465832555284234</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5728263223299979</v>
+        <v>0.5622962428409201</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -4732,19 +4732,19 @@
         <v>6323</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2245</v>
+        <v>2287</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11952</v>
+        <v>11718</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2268072097479704</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08053056235435882</v>
+        <v>0.0820507707856632</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4287299337912288</v>
+        <v>0.4203451037092532</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -4753,19 +4753,19 @@
         <v>9774</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5360</v>
+        <v>5237</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16991</v>
+        <v>16139</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2371087197356934</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1300396222369423</v>
+        <v>0.1270576365825606</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4121836439516407</v>
+        <v>0.3915170665332385</v>
       </c>
     </row>
     <row r="25">
@@ -4795,19 +4795,19 @@
         <v>5930</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2150</v>
+        <v>2077</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11614</v>
+        <v>11665</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2127098976475371</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07711283798151865</v>
+        <v>0.07450479480236309</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4166206636966237</v>
+        <v>0.4184557748551365</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -4816,19 +4816,19 @@
         <v>5930</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2126</v>
+        <v>2034</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12618</v>
+        <v>12600</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1438510702876261</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05157894246660306</v>
+        <v>0.04934841975453175</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3061170532723758</v>
+        <v>0.3056689373126747</v>
       </c>
     </row>
     <row r="26">
@@ -4845,19 +4845,19 @@
         <v>5756</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2092</v>
+        <v>1953</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9900</v>
+        <v>9689</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4313643089208556</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1567417955074202</v>
+        <v>0.1463823297652307</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.741920877265718</v>
+        <v>0.7260668247035021</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -4866,19 +4866,19 @@
         <v>7138</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3038</v>
+        <v>2887</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12325</v>
+        <v>12314</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2560601918374525</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1089703088787634</v>
+        <v>0.1035495351042603</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4421270875856831</v>
+        <v>0.4417249669516184</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -4887,19 +4887,19 @@
         <v>12894</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7816</v>
+        <v>6694</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19912</v>
+        <v>19346</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3128099532130602</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.189604448220893</v>
+        <v>0.1623929360228833</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4830587386098349</v>
+        <v>0.4693130229485956</v>
       </c>
     </row>
     <row r="27">
@@ -4916,19 +4916,19 @@
         <v>4137</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1000</v>
+        <v>1043</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7934</v>
+        <v>8098</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3100063719645634</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07495687165932577</v>
+        <v>0.07817901828591921</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5945992822567565</v>
+        <v>0.6068772122025892</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -4937,19 +4937,19 @@
         <v>8486</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4183</v>
+        <v>4073</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14079</v>
+        <v>13919</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.30442270076704</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1500348092367666</v>
+        <v>0.1460932487461</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5050301423233725</v>
+        <v>0.499282641352108</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>12</v>
@@ -4958,19 +4958,19 @@
         <v>12623</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6740</v>
+        <v>7498</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>18944</v>
+        <v>20090</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3062302567636203</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1634979735363173</v>
+        <v>0.1818946564926737</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4595759037809098</v>
+        <v>0.4873688087548873</v>
       </c>
     </row>
     <row r="28">
@@ -5083,19 +5083,19 @@
         <v>3036</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>924</v>
+        <v>897</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7489</v>
+        <v>7424</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1513259908924501</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04608140624231242</v>
+        <v>0.0446940817241475</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3733303563434995</v>
+        <v>0.3700925844250215</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -5104,19 +5104,19 @@
         <v>4086</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8666</v>
+        <v>8683</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1844025318459537</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04687026236531685</v>
+        <v>0.04707173181822132</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3910739314644084</v>
+        <v>0.3918352197833725</v>
       </c>
     </row>
     <row r="30">
@@ -5146,19 +5146,19 @@
         <v>5329</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1960</v>
+        <v>2069</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10034</v>
+        <v>10081</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.265653374034626</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09769706203277341</v>
+        <v>0.103164311191261</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5002139055336503</v>
+        <v>0.5025421299720461</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -5167,19 +5167,19 @@
         <v>5329</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2063</v>
+        <v>2054</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10195</v>
+        <v>10092</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2404870540325325</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09308809557668558</v>
+        <v>0.09268624367936619</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.460101365683364</v>
+        <v>0.4554326278282957</v>
       </c>
     </row>
     <row r="31">
@@ -5209,19 +5209,19 @@
         <v>3053</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>915</v>
+        <v>948</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7472</v>
+        <v>7279</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1521805364503363</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04558824969856218</v>
+        <v>0.04726753692429633</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3724982591000965</v>
+        <v>0.3628797069287605</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -5230,19 +5230,19 @@
         <v>3053</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>927</v>
+        <v>948</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7443</v>
+        <v>7223</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1377639151959786</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0418312279878554</v>
+        <v>0.04280154752055532</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3359035780290578</v>
+        <v>0.3259561770730185</v>
       </c>
     </row>
     <row r="32">
@@ -5280,19 +5280,19 @@
         <v>8643</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4393</v>
+        <v>4446</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13688</v>
+        <v>13375</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4308400986225877</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.218969908464492</v>
+        <v>0.2216211009477363</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6823600933947832</v>
+        <v>0.6667540531309883</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -5301,19 +5301,19 @@
         <v>9691</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4869</v>
+        <v>4787</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14589</v>
+        <v>14694</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4373464989255352</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2197187441830091</v>
+        <v>0.2160200782297804</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6583579895095729</v>
+        <v>0.6631225332459791</v>
       </c>
     </row>
     <row r="33">
@@ -5405,19 +5405,19 @@
         <v>11456</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6199</v>
+        <v>6124</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>17579</v>
+        <v>18317</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1916361606190051</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1037011079521781</v>
+        <v>0.1024376226002854</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2940577750469088</v>
+        <v>0.306398945988577</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>20</v>
@@ -5426,19 +5426,19 @@
         <v>21962</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2705951630438409</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>31</v>
@@ -5447,19 +5447,19 @@
         <v>33418</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>24213</v>
+        <v>24374</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>44976</v>
+        <v>46045</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2371044853565009</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1717911101721128</v>
+        <v>0.1729325614287226</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3191112570429627</v>
+        <v>0.326690696293803</v>
       </c>
     </row>
     <row r="35">
@@ -5476,19 +5476,19 @@
         <v>12038</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6142</v>
+        <v>6643</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>20992</v>
+        <v>20326</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2013614805036091</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1027388711361396</v>
+        <v>0.1111163000117257</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3511463788282029</v>
+        <v>0.3400026821494214</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -5497,19 +5497,19 @@
         <v>13696</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7407</v>
+        <v>7752</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>21578</v>
+        <v>23601</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1687459166457902</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09126334073806378</v>
+        <v>0.09551827591261187</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2658615296898084</v>
+        <v>0.2907900810602665</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>23</v>
@@ -5518,19 +5518,19 @@
         <v>25733</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>15757</v>
+        <v>17421</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>35452</v>
+        <v>36812</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1825798976132282</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1117986805110251</v>
+        <v>0.1236036437059721</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2515336523254374</v>
+        <v>0.2611863402213895</v>
       </c>
     </row>
     <row r="36">
@@ -5547,19 +5547,19 @@
         <v>14531</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8632</v>
+        <v>8263</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23382</v>
+        <v>22828</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2430720952674582</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1443955488283878</v>
+        <v>0.1382132963373464</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3911287456569332</v>
+        <v>0.3818475070601625</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -5568,19 +5568,19 @@
         <v>16644</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10061</v>
+        <v>10317</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>25113</v>
+        <v>24967</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2050718790851661</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1239666462973481</v>
+        <v>0.1271215994720374</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3094135783742408</v>
+        <v>0.3076231626781035</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>29</v>
@@ -5589,19 +5589,19 @@
         <v>31175</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22050</v>
+        <v>21552</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42500</v>
+        <v>41394</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2211897751214271</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1564454232484497</v>
+        <v>0.1529097803214305</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3015390627752443</v>
+        <v>0.293693631342288</v>
       </c>
     </row>
     <row r="37">
@@ -5618,19 +5618,19 @@
         <v>21756</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14499</v>
+        <v>14675</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>30125</v>
+        <v>29132</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3639302636099276</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2425261498991175</v>
+        <v>0.2454722081250846</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5039156645964727</v>
+        <v>0.4873113167141803</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>26</v>
@@ -5639,19 +5639,19 @@
         <v>28860</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>20504</v>
+        <v>20494</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>38034</v>
+        <v>38066</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3555870412252027</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2526362011552905</v>
+        <v>0.2525013051844198</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4686184580266811</v>
+        <v>0.4690087097683295</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>46</v>
@@ -5660,19 +5660,19 @@
         <v>50616</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>38675</v>
+        <v>40024</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>61951</v>
+        <v>63457</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3591258419088438</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2743995213441205</v>
+        <v>0.2839718456373725</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4395441361941764</v>
+        <v>0.4502306160816868</v>
       </c>
     </row>
     <row r="38">
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5112</v>
+        <v>5117</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2153681003445358</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5990976109641637</v>
+        <v>0.5996570664013157</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -6087,19 +6087,19 @@
         <v>4320</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7798</v>
+        <v>7831</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3921639315013691</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0915415334201512</v>
+        <v>0.08999047701046368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7079383775212816</v>
+        <v>0.7109458116643884</v>
       </c>
     </row>
     <row r="6">
@@ -6116,19 +6116,19 @@
         <v>4685</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1562</v>
+        <v>2228</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7586</v>
+        <v>7632</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5490751691170326</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1830962194030643</v>
+        <v>0.2611279972838806</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.888989840973291</v>
+        <v>0.8944494381026074</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -6150,19 +6150,19 @@
         <v>4685</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1516</v>
+        <v>1228</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8268</v>
+        <v>8251</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4253557524909046</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1376607059963782</v>
+        <v>0.1114867812744918</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.750647003574563</v>
+        <v>0.7490822381132219</v>
       </c>
     </row>
     <row r="7">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5333</v>
+        <v>5326</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2355567305384316</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6249799654406017</v>
+        <v>0.6241525890837166</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5417</v>
+        <v>5982</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1824803160077262</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4918222919282149</v>
+        <v>0.5431049693290895</v>
       </c>
     </row>
     <row r="8">
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4991</v>
+        <v>5706</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2351046501961479</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5966015021812134</v>
+        <v>0.6820955269993048</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -6359,19 +6359,19 @@
         <v>3998</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7816</v>
+        <v>7894</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3231424042159738</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07813763328200216</v>
+        <v>0.07948954215072092</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6317810582395015</v>
+        <v>0.6380735389498134</v>
       </c>
     </row>
     <row r="10">
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6259</v>
+        <v>5835</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2864652021913329</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7481969898146326</v>
+        <v>0.6975084971076899</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6308</v>
+        <v>6320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1937157790847157</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5098826801496864</v>
+        <v>0.5108651586658228</v>
       </c>
     </row>
     <row r="11">
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4005</v>
+        <v>3042</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2479009775904703</v>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1</v>
+        <v>0.7595798331294863</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5743</v>
+        <v>5617</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2230326228758569</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6866000394132388</v>
+        <v>0.6714569722461462</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -6493,19 +6493,19 @@
         <v>2859</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6429</v>
+        <v>6461</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2310843008309705</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0641526052468408</v>
+        <v>0.06370851303611967</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5197114933131672</v>
+        <v>0.5222586442939542</v>
       </c>
     </row>
     <row r="12">
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6243</v>
+        <v>6319</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2553975247366623</v>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7463189446172436</v>
+        <v>0.755386326721185</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7928</v>
+        <v>7472</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2520575158683401</v>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6408752383088001</v>
+        <v>0.6040150771666373</v>
       </c>
     </row>
     <row r="13">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5558</v>
+        <v>5721</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1774639004354196</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.511284505004088</v>
+        <v>0.5262384801980606</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1868415575752274</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7937440777048996</v>
+        <v>0.7936688078787375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -6710,19 +6710,19 @@
         <v>2971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8022</v>
+        <v>7070</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1806420920626717</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04708035358525724</v>
+        <v>0.04758246281485494</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4877815983370339</v>
+        <v>0.4298893892687003</v>
       </c>
     </row>
     <row r="15">
@@ -6739,19 +6739,19 @@
         <v>4986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1191</v>
+        <v>1637</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8372</v>
+        <v>8464</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4586930307599734</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1095238961977024</v>
+        <v>0.1505527826522393</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7701138694762047</v>
+        <v>0.7785446675613136</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4417</v>
+        <v>4489</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2162342719064434</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7926317271859966</v>
+        <v>0.8054532320996218</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -6781,19 +6781,19 @@
         <v>6192</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2456</v>
+        <v>2512</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10623</v>
+        <v>10615</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3765210782291921</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1493554982459843</v>
+        <v>0.1527641666244633</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6459648231018494</v>
+        <v>0.645457869872505</v>
       </c>
     </row>
     <row r="16">
@@ -6810,19 +6810,19 @@
         <v>2998</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6583</v>
+        <v>6485</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2758186106025827</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07882257241805554</v>
+        <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6055798738637826</v>
+        <v>0.5965152781708807</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -6844,19 +6844,19 @@
         <v>2999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>828</v>
+        <v>881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7208</v>
+        <v>6869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1823406356896071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05037715682049038</v>
+        <v>0.0535846266137692</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4382853613928466</v>
+        <v>0.4177063946286051</v>
       </c>
     </row>
     <row r="17">
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4922</v>
+        <v>4328</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08802445820202431</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4527622984509829</v>
+        <v>0.3980836743211623</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -6894,7 +6894,7 @@
         <v>3327</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>5573</v>
@@ -6903,7 +6903,7 @@
         <v>0.5969241705183292</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0</v>
+        <v>0.1886644353244565</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -6915,19 +6915,19 @@
         <v>4284</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1072</v>
+        <v>1167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8491</v>
+        <v>8813</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2604961940185291</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06517665264901404</v>
+        <v>0.07095694096360432</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.516297757942599</v>
+        <v>0.5359308489147369</v>
       </c>
     </row>
     <row r="18">
@@ -7019,19 +7019,19 @@
         <v>6095</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2099</v>
+        <v>2194</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11037</v>
+        <v>11734</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3271048038826768</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1126559807666256</v>
+        <v>0.1177299730258197</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5923422511889612</v>
+        <v>0.6298020699033516</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -7040,19 +7040,19 @@
         <v>4060</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>907</v>
+        <v>1016</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7642</v>
+        <v>8075</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3207785581784122</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07167473127128722</v>
+        <v>0.08025868195117489</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6037886971408912</v>
+        <v>0.6380044441620503</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -7061,19 +7061,19 @@
         <v>10155</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4979</v>
+        <v>5037</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16209</v>
+        <v>15979</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3245457106880122</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1591388659666057</v>
+        <v>0.1609897925356385</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.518053630408564</v>
+        <v>0.510692319207837</v>
       </c>
     </row>
     <row r="20">
@@ -7090,19 +7090,19 @@
         <v>3350</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7614</v>
+        <v>7371</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1797900029244617</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05384989201920983</v>
+        <v>0.0528861767440023</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4086400904604072</v>
+        <v>0.3956009131488346</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -7111,19 +7111,19 @@
         <v>4694</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1140</v>
+        <v>1075</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8551</v>
+        <v>8710</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3708516608913128</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09006760928972202</v>
+        <v>0.08496865559455651</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6755918480527199</v>
+        <v>0.6881749149178028</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -7132,19 +7132,19 @@
         <v>8044</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3370</v>
+        <v>3979</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13563</v>
+        <v>14672</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2570782733333541</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1077020105583522</v>
+        <v>0.1271550436449815</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4334800120834522</v>
+        <v>0.4689128730068656</v>
       </c>
     </row>
     <row r="21">
@@ -7161,19 +7161,19 @@
         <v>3872</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1066</v>
+        <v>969</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8545</v>
+        <v>8107</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2078131424326864</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05719301021312656</v>
+        <v>0.05202965259543887</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4586033416436956</v>
+        <v>0.4351019262818914</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4572</v>
+        <v>3635</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06446534383307546</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3611983493422119</v>
+        <v>0.2871949310887173</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -7203,19 +7203,19 @@
         <v>4688</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1651</v>
+        <v>1559</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9869</v>
+        <v>9737</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1498260845447643</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05275681542148475</v>
+        <v>0.04982312606501068</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3154134235077029</v>
+        <v>0.3111913086558601</v>
       </c>
     </row>
     <row r="22">
@@ -7232,19 +7232,19 @@
         <v>5316</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1985</v>
+        <v>1828</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10097</v>
+        <v>9994</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2852920507601751</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1065557166279736</v>
+        <v>0.09809536004019241</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5419228536091382</v>
+        <v>0.5363637563965055</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -7253,19 +7253,19 @@
         <v>3087</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6808</v>
+        <v>7505</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2439044370971996</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07087311795520412</v>
+        <v>0.07197634930484291</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5378736443188727</v>
+        <v>0.5929352455451955</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -7274,19 +7274,19 @@
         <v>8403</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3741</v>
+        <v>4221</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14690</v>
+        <v>14369</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2685499314338695</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1195650598469251</v>
+        <v>0.1348974793538555</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4694928839763097</v>
+        <v>0.4592277092477704</v>
       </c>
     </row>
     <row r="23">
@@ -7391,19 +7391,19 @@
         <v>6964</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2912</v>
+        <v>2997</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11004</v>
+        <v>11070</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4179193308481112</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1747387723400214</v>
+        <v>0.1798260243676562</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.660341864728039</v>
+        <v>0.6643289680205259</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -7412,19 +7412,19 @@
         <v>6964</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2947</v>
+        <v>2977</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11740</v>
+        <v>12147</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2806745600112941</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1187765183488224</v>
+        <v>0.1199911207898791</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4731511709813235</v>
+        <v>0.4895417835267469</v>
       </c>
     </row>
     <row r="25">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4861</v>
+        <v>4928</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2161169295333393</v>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.596551445259514</v>
+        <v>0.6048027106381214</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -7462,19 +7462,19 @@
         <v>3286</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7572</v>
+        <v>8060</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.197190033175473</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05574830795633658</v>
+        <v>0.05636724737966795</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4543791089493444</v>
+        <v>0.4836991901465911</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -7483,19 +7483,19 @@
         <v>5047</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1857</v>
+        <v>1965</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10327</v>
+        <v>10244</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2034056287738293</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07484475844362332</v>
+        <v>0.07918468670790751</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4161750464939321</v>
+        <v>0.4128578731570844</v>
       </c>
     </row>
     <row r="26">
@@ -7512,19 +7512,19 @@
         <v>4257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1142</v>
+        <v>1096</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7101</v>
+        <v>7171</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5224510098309617</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1401193261646395</v>
+        <v>0.1345660733442781</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8714708722059322</v>
+        <v>0.8801132505106136</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4298</v>
+        <v>4331</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06165778121185562</v>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2579224714830687</v>
+        <v>0.2598830156871559</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -7554,19 +7554,19 @@
         <v>5285</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2073</v>
+        <v>2121</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10444</v>
+        <v>10678</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2129823464973289</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08354832789716614</v>
+        <v>0.08547111764969767</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4209228303639414</v>
+        <v>0.4303516068722893</v>
       </c>
     </row>
     <row r="27">
@@ -7586,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5200</v>
+        <v>5544</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2614320606356991</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6382196950499404</v>
+        <v>0.6804488005839957</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -7604,19 +7604,19 @@
         <v>5386</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2130</v>
+        <v>2114</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9729</v>
+        <v>9579</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3232328547645602</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1277905197856929</v>
+        <v>0.1268525293743625</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5838597491158267</v>
+        <v>0.5748390061108805</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7</v>
@@ -7625,19 +7625,19 @@
         <v>7517</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3348</v>
+        <v>3280</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>13042</v>
+        <v>12242</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3029374647175477</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1349392299888116</v>
+        <v>0.1322070477186315</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5256067839406948</v>
+        <v>0.4933787968890343</v>
       </c>
     </row>
     <row r="28">
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6695</v>
+        <v>6111</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1369182910637184</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4614703132161544</v>
+        <v>0.4212123608891025</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -7763,19 +7763,19 @@
         <v>3074</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7560</v>
+        <v>7213</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1971331576369253</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05810117919465605</v>
+        <v>0.05819227068353145</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4847478552508923</v>
+        <v>0.46249433783907</v>
       </c>
     </row>
     <row r="30">
@@ -7808,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6105</v>
+        <v>6441</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.145415701617916</v>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4208199735272479</v>
+        <v>0.4439821388822366</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5874</v>
+        <v>6602</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.135270443086874</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3766445509453258</v>
+        <v>0.4233698663075325</v>
       </c>
     </row>
     <row r="31">
@@ -7868,19 +7868,19 @@
         <v>4099</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8896</v>
+        <v>9196</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2825388546457936</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0690505255538683</v>
+        <v>0.070235732692619</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6132479936825841</v>
+        <v>0.6339047101574863</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -7889,19 +7889,19 @@
         <v>4099</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9057</v>
+        <v>9289</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2628268861750318</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06593411467866647</v>
+        <v>0.0654652747094073</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5807310680595564</v>
+        <v>0.5956232493543527</v>
       </c>
     </row>
     <row r="32">
@@ -7931,19 +7931,19 @@
         <v>6312</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2349</v>
+        <v>2398</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10778</v>
+        <v>11064</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.435127152672572</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1619542610553884</v>
+        <v>0.1652732626064831</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7429256687629524</v>
+        <v>0.7626820614818065</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -7952,19 +7952,19 @@
         <v>6312</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2422</v>
+        <v>2382</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10932</v>
+        <v>10565</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4047695131011688</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1553067561585405</v>
+        <v>0.1527097457647107</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7010061984322576</v>
+        <v>0.6774459836871396</v>
       </c>
     </row>
     <row r="33">
@@ -8056,19 +8056,19 @@
         <v>11143</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6248</v>
+        <v>5503</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18217</v>
+        <v>18038</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2172964112123894</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1218495667186171</v>
+        <v>0.1073106239483841</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3552547090983913</v>
+        <v>0.3517759010470973</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -8077,19 +8077,19 @@
         <v>16019</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2658760691545864</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>26</v>
@@ -8098,19 +8098,19 @@
         <v>27161</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>18352</v>
+        <v>19248</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>37610</v>
+        <v>37856</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2435398874559074</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1645492194268222</v>
+        <v>0.172582110948147</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3372274808387563</v>
+        <v>0.3394312086161756</v>
       </c>
     </row>
     <row r="35">
@@ -8127,19 +8127,19 @@
         <v>11935</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6304</v>
+        <v>6613</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>18412</v>
+        <v>19200</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.23275448846921</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1229440762911188</v>
+        <v>0.1289615671436667</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3590606284697368</v>
+        <v>0.3744344376262063</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>14</v>
@@ -8148,19 +8148,19 @@
         <v>16173</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9840</v>
+        <v>9176</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>23857</v>
+        <v>24439</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2684369287759531</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1633327660682641</v>
+        <v>0.1523084286620429</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3959838822041974</v>
+        <v>0.4056449623830334</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>25</v>
@@ -8169,19 +8169,19 @@
         <v>28108</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>18972</v>
+        <v>19033</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>39416</v>
+        <v>37695</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2520306899528635</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1701070923579905</v>
+        <v>0.1706562993984858</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3534227672544126</v>
+        <v>0.3379896443118315</v>
       </c>
     </row>
     <row r="36">
@@ -8198,19 +8198,19 @@
         <v>16806</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10344</v>
+        <v>11003</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23899</v>
+        <v>24480</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3277412144159592</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2017311679717394</v>
+        <v>0.2145784971320333</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4660652107263029</v>
+        <v>0.4774061113641611</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -8219,19 +8219,19 @@
         <v>7808</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3685</v>
+        <v>3349</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>14784</v>
+        <v>14330</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1295947119649372</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06117203124708093</v>
+        <v>0.0555911974146631</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2453861725676109</v>
+        <v>0.2378581348709499</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>23</v>
@@ -8240,19 +8240,19 @@
         <v>24614</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16575</v>
+        <v>16743</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>34344</v>
+        <v>34628</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2206994349946858</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.148620151021357</v>
+        <v>0.1501227713356597</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3079444143033644</v>
+        <v>0.3104927979965185</v>
       </c>
     </row>
     <row r="37">
@@ -8269,19 +8269,19 @@
         <v>11394</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6244</v>
+        <v>6729</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18263</v>
+        <v>19019</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2222078859024415</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1217616446266111</v>
+        <v>0.1312187417655112</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3561632901393209</v>
+        <v>0.3708904150432137</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -8290,19 +8290,19 @@
         <v>20249</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12876</v>
+        <v>13473</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>29529</v>
+        <v>29510</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3360922901045232</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2137159796555611</v>
+        <v>0.2236271009900762</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4901169203267113</v>
+        <v>0.4898009245130661</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>28</v>
@@ -8311,19 +8311,19 @@
         <v>31644</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>22572</v>
+        <v>21908</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>42915</v>
+        <v>43130</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2837299875965433</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.202393983081814</v>
+        <v>0.1964343607774975</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3847918042513971</v>
+        <v>0.3867246231885978</v>
       </c>
     </row>
     <row r="38">
@@ -8657,19 +8657,19 @@
         <v>3754</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1213</v>
+        <v>1252</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7180</v>
+        <v>7269</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2695544344253733</v>
+        <v>0.2695544344253734</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08713692586402778</v>
+        <v>0.08991884235461833</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5156349933589519</v>
+        <v>0.5220459368275447</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -8681,16 +8681,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2417</v>
+        <v>2403</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3471157148798254</v>
+        <v>0.3471157148798253</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.795032769469064</v>
+        <v>0.7904112669864004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -8699,19 +8699,19 @@
         <v>4809</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2102</v>
+        <v>1868</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8767</v>
+        <v>8686</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2834540017678474</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1238848732267015</v>
+        <v>0.1100876303069317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5167571320294604</v>
+        <v>0.5120075493576836</v>
       </c>
     </row>
     <row r="5">
@@ -8775,19 +8775,19 @@
         <v>5936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2487</v>
+        <v>2436</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10441</v>
+        <v>10326</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4263179705114879</v>
+        <v>0.426317970511488</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1786265839370541</v>
+        <v>0.1749306095680097</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7498061848545541</v>
+        <v>0.7415600264022336</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -8809,19 +8809,19 @@
         <v>5936</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1929</v>
+        <v>2403</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10946</v>
+        <v>11129</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.349918569860655</v>
+        <v>0.3499185698606549</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1137042730350771</v>
+        <v>0.1416726028660245</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6452230786505145</v>
+        <v>0.6559977077369589</v>
       </c>
     </row>
     <row r="7">
@@ -8838,19 +8838,19 @@
         <v>4235</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1556</v>
+        <v>1316</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8112</v>
+        <v>8245</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3041275950631387</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1117618690777584</v>
+        <v>0.09453331073485211</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5825501798856122</v>
+        <v>0.5920917331064331</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -8859,16 +8859,16 @@
         <v>1985</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>3040</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6528842851201747</v>
+        <v>0.6528842851201746</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2095887330135994</v>
+        <v>0.2050906737213338</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -8880,19 +8880,19 @@
         <v>6220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2810</v>
+        <v>2631</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10663</v>
+        <v>10164</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3666274283714977</v>
+        <v>0.3666274283714976</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1656136758112498</v>
+        <v>0.1550654885698342</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.628520306513876</v>
+        <v>0.5991041907301999</v>
       </c>
     </row>
     <row r="8">
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3032</v>
+        <v>3065</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06016314526130007</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3094547298383409</v>
+        <v>0.3128220530374882</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -9021,16 +9021,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3574</v>
+        <v>3580</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03618199230726557</v>
+        <v>0.03618199230726558</v>
       </c>
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2193301458128703</v>
+        <v>0.2197265033049019</v>
       </c>
     </row>
     <row r="10">
@@ -9047,19 +9047,19 @@
         <v>3228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>762</v>
+        <v>833</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5535</v>
+        <v>5491</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4969570764400457</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.117304004935045</v>
+        <v>0.128238653009649</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8521267579582796</v>
+        <v>0.8453486315570844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -9068,19 +9068,19 @@
         <v>2047</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4922</v>
+        <v>4682</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2089367708079798</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0585173975860825</v>
+        <v>0.05768652646865739</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5023326779968217</v>
+        <v>0.4777695155523499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -9089,19 +9089,19 @@
         <v>5275</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1951</v>
+        <v>2527</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8785</v>
+        <v>9712</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3237422546840579</v>
+        <v>0.323742254684058</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1197257952633637</v>
+        <v>0.1551171846044246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5391385614787552</v>
+        <v>0.5960383618040546</v>
       </c>
     </row>
     <row r="11">
@@ -9118,19 +9118,19 @@
         <v>2169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5183</v>
+        <v>4955</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3339716599834708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07743821343987221</v>
+        <v>0.06889817196557792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7980610763949312</v>
+        <v>0.7629553101467952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2869</v>
+        <v>2435</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04814389875521014</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2927642260867648</v>
+        <v>0.2485327380199695</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -9160,19 +9160,19 @@
         <v>2641</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>831</v>
+        <v>715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6531</v>
+        <v>6733</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1620754299401881</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05100269686154194</v>
+        <v>0.04385989084505374</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4008344854182622</v>
+        <v>0.4131947589060313</v>
       </c>
     </row>
     <row r="12">
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4026</v>
+        <v>4019</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1690712635764835</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6198987029380458</v>
+        <v>0.618739473026194</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -9210,19 +9210,19 @@
         <v>6690</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3654</v>
+        <v>3882</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8761</v>
+        <v>8734</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.68275618517551</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3728705748674975</v>
+        <v>0.3961884719138767</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8940465177781476</v>
+        <v>0.8912671265648642</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -9231,19 +9231,19 @@
         <v>7789</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4186</v>
+        <v>3921</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11785</v>
+        <v>11454</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4780003230684883</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2569068972374821</v>
+        <v>0.2406309292563079</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7232774860357184</v>
+        <v>0.7029491234356905</v>
       </c>
     </row>
     <row r="13">
@@ -9335,19 +9335,19 @@
         <v>6801</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2929</v>
+        <v>2853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11566</v>
+        <v>11286</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4066333325836025</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1751532171603205</v>
+        <v>0.17057558903364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6915175847238789</v>
+        <v>0.6748157988433539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -9356,19 +9356,19 @@
         <v>1905</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3777</v>
+        <v>3562</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4043519255076166</v>
+        <v>0.4043519255076164</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0973741123757772</v>
+        <v>0.08717046739588344</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8017884781685727</v>
+        <v>0.7561482876403022</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -9377,19 +9377,19 @@
         <v>8705</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4309</v>
+        <v>4170</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14087</v>
+        <v>13395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4061319387230411</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2010432989999846</v>
+        <v>0.1945542428691459</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.657195188460433</v>
+        <v>0.624928280369446</v>
       </c>
     </row>
     <row r="15">
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3707</v>
+        <v>3215</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05969634203524151</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2216549332214819</v>
+        <v>0.1922158557726696</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -9430,16 +9430,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2780</v>
+        <v>2348</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1385496411877232</v>
+        <v>0.1385496411877231</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5901712713526664</v>
+        <v>0.4983426938834029</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -9448,19 +9448,19 @@
         <v>1651</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4917</v>
+        <v>4540</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07702624361055714</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02188696277983091</v>
+        <v>0.02224960071610307</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2294005870854755</v>
+        <v>0.2118236699871018</v>
       </c>
     </row>
     <row r="16">
@@ -9477,19 +9477,19 @@
         <v>2913</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>785</v>
+        <v>812</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6902</v>
+        <v>7451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1741487953995355</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04693678645070738</v>
+        <v>0.04856148533131888</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4126984801250448</v>
+        <v>0.4454787044799252</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2781</v>
+        <v>2732</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1328930510753871</v>
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5902584740169975</v>
+        <v>0.5799280302619559</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -9519,19 +9519,19 @@
         <v>3539</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>935</v>
+        <v>879</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8419</v>
+        <v>7527</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1650818572214469</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04361536473181321</v>
+        <v>0.04099332486713233</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3927643431070915</v>
+        <v>0.3511617249266099</v>
       </c>
     </row>
     <row r="17">
@@ -9548,19 +9548,19 @@
         <v>6013</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2118</v>
+        <v>2229</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10330</v>
+        <v>10149</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3595215299816206</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.126642046168248</v>
+        <v>0.1332571414461429</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6176266289114002</v>
+        <v>0.6068161336552361</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -9572,16 +9572,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3591</v>
+        <v>3720</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3242053822292733</v>
+        <v>0.3242053822292732</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7622810521057968</v>
+        <v>0.7895366007133761</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -9590,19 +9590,19 @@
         <v>7540</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3545</v>
+        <v>3672</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12526</v>
+        <v>12432</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3517599604449549</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1653750642288811</v>
+        <v>0.1712888864757176</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5843791110251646</v>
+        <v>0.5799703342630882</v>
       </c>
     </row>
     <row r="18">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5929</v>
+        <v>5629</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1261079830679171</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4502514088576727</v>
+        <v>0.4274947109434821</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -9715,19 +9715,19 @@
         <v>2156</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5217</v>
+        <v>5018</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2046287203043884</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05680324173054672</v>
+        <v>0.05443865335566826</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4952849770255668</v>
+        <v>0.4763758265849151</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -9736,19 +9736,19 @@
         <v>3816</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1557</v>
+        <v>1217</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8630</v>
+        <v>8381</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1610048883270463</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06567780741627087</v>
+        <v>0.05132785831954632</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3640912204283</v>
+        <v>0.3536094127322507</v>
       </c>
     </row>
     <row r="20">
@@ -9765,19 +9765,19 @@
         <v>2945</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>947</v>
+        <v>1087</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5845</v>
+        <v>6136</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2236497911400374</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07190592610649682</v>
+        <v>0.08254993902151671</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4438463706090863</v>
+        <v>0.4659999644422394</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -9786,19 +9786,19 @@
         <v>3166</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1169</v>
+        <v>1187</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6066</v>
+        <v>6001</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3005440839980397</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.111008753158528</v>
+        <v>0.1127016794458544</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5758738319141823</v>
+        <v>0.5696965200512784</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -9807,19 +9807,19 @@
         <v>6111</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3104</v>
+        <v>3216</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9943</v>
+        <v>10383</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2578238570909498</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1309638518406076</v>
+        <v>0.1356715100685235</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4195003318247852</v>
+        <v>0.4380605504678562</v>
       </c>
     </row>
     <row r="21">
@@ -9839,16 +9839,16 @@
         <v>421</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4358</v>
+        <v>4023</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1170697762774181</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03200525022307575</v>
+        <v>0.0319561512944951</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3309570729267832</v>
+        <v>0.3055235585185908</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -9860,16 +9860,16 @@
         <v>516</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4782</v>
+        <v>4936</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1892287452501671</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04899043618262424</v>
+        <v>0.04902471593038626</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.45400018078457</v>
+        <v>0.4686242564189035</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -9878,19 +9878,19 @@
         <v>3535</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1433</v>
+        <v>1415</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7029</v>
+        <v>6843</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1491393262136972</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06045828074184551</v>
+        <v>0.05971711154691683</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2965747890759101</v>
+        <v>0.2887094277100296</v>
       </c>
     </row>
     <row r="22">
@@ -9907,19 +9907,19 @@
         <v>7021</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3379</v>
+        <v>3904</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10044</v>
+        <v>10134</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5331724495146274</v>
+        <v>0.5331724495146273</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2566104141363268</v>
+        <v>0.2964632280831367</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7627307869835402</v>
+        <v>0.7695617585422696</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -9928,19 +9928,19 @@
         <v>3219</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6234</v>
+        <v>6293</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3055984504474049</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1186188123373156</v>
+        <v>0.118345359067598</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.59175627826699</v>
+        <v>0.597410627459379</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -9949,19 +9949,19 @@
         <v>10240</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6648</v>
+        <v>6378</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14832</v>
+        <v>14805</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4320319283683067</v>
+        <v>0.4320319283683068</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2804623621060229</v>
+        <v>0.2690766608755109</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.625778399637103</v>
+        <v>0.6246425592642453</v>
       </c>
     </row>
     <row r="23">
@@ -10053,19 +10053,19 @@
         <v>5051</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2125</v>
+        <v>1842</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8646</v>
+        <v>8408</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4304486292397643</v>
+        <v>0.4304486292397642</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1811049559360126</v>
+        <v>0.1569398701511847</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7367805511356788</v>
+        <v>0.7164981626435167</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -10074,19 +10074,19 @@
         <v>3752</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1738</v>
+        <v>1462</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6735</v>
+        <v>7072</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2524600637976705</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1169846892373034</v>
+        <v>0.09835524897566926</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.453216007529139</v>
+        <v>0.4759234432309946</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -10095,19 +10095,19 @@
         <v>8803</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4775</v>
+        <v>4849</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13313</v>
+        <v>13544</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3309987101128043</v>
+        <v>0.3309987101128041</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1795477141651927</v>
+        <v>0.1823316042610111</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.500570774056539</v>
+        <v>0.5092351029697323</v>
       </c>
     </row>
     <row r="25">
@@ -10127,16 +10127,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3916</v>
+        <v>4322</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07202410004831965</v>
+        <v>0.07202410004831963</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3337324102073664</v>
+        <v>0.3683339229090201</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -10145,19 +10145,19 @@
         <v>2446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>686</v>
+        <v>616</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5474</v>
+        <v>5383</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1645747227950828</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04616376360913504</v>
+        <v>0.04147347399837305</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3683483249556702</v>
+        <v>0.3622297038956802</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -10166,19 +10166,19 @@
         <v>3291</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1241</v>
+        <v>1216</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6808</v>
+        <v>7177</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1237361407878683</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04665014849619104</v>
+        <v>0.04573905394215095</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2559922843396403</v>
+        <v>0.2698713521452578</v>
       </c>
     </row>
     <row r="26">
@@ -10198,16 +10198,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4564</v>
+        <v>4768</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09750506949532876</v>
+        <v>0.09750506949532875</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3889535243389117</v>
+        <v>0.4063234139550893</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -10216,19 +10216,19 @@
         <v>2548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>627</v>
+        <v>741</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5361</v>
+        <v>5595</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1714671854317903</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0421959209633762</v>
+        <v>0.04989108447196182</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3607661755619331</v>
+        <v>0.3765275581345163</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -10237,19 +10237,19 @@
         <v>3692</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1519</v>
+        <v>1288</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8037</v>
+        <v>8355</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1388309065235112</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05712576278953615</v>
+        <v>0.04843811674091018</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3021782389744495</v>
+        <v>0.3141601681490595</v>
       </c>
     </row>
     <row r="27">
@@ -10266,19 +10266,19 @@
         <v>4694</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1687</v>
+        <v>1842</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8252</v>
+        <v>8298</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4000222012165873</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.143760674261527</v>
+        <v>0.1569947913943967</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7032001391519238</v>
+        <v>0.7071210526407063</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -10287,19 +10287,19 @@
         <v>6115</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3315</v>
+        <v>3278</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9202</v>
+        <v>9204</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.4114980279754565</v>
+        <v>0.4114980279754564</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2230954817166753</v>
+        <v>0.2205592499428456</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6192755457330195</v>
+        <v>0.6194118773169565</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>15</v>
@@ -10308,19 +10308,19 @@
         <v>10810</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6280</v>
+        <v>6752</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>15058</v>
+        <v>15375</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.4064342425758163</v>
+        <v>0.4064342425758162</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2361088644924736</v>
+        <v>0.2538859895648379</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5661907456482245</v>
+        <v>0.5780862675004458</v>
       </c>
     </row>
     <row r="28">
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1597</v>
+        <v>1635</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0590654226517983</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2706109545245395</v>
+        <v>0.2770138364799938</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2946</v>
+        <v>2512</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.133548177624205</v>
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4595842745906171</v>
+        <v>0.3918193845437179</v>
       </c>
     </row>
     <row r="30">
@@ -10488,19 +10488,19 @@
         <v>2983</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1276</v>
+        <v>1089</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4919</v>
+        <v>4628</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.5053219396941789</v>
+        <v>0.505321939694179</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2161503442182871</v>
+        <v>0.184496626099408</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8332845606762169</v>
+        <v>0.7840318919300777</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -10509,19 +10509,19 @@
         <v>2983</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1102</v>
+        <v>1143</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5015</v>
+        <v>4969</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4653215282707877</v>
+        <v>0.4653215282707878</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1719728924098221</v>
+        <v>0.1783782115817705</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7823720214878642</v>
+        <v>0.7752606565067995</v>
       </c>
     </row>
     <row r="31">
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2866</v>
+        <v>3136</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.174046744377966</v>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4854652128267726</v>
+        <v>0.5312156593952597</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3334</v>
+        <v>3046</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1602695048893465</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5201542362535033</v>
+        <v>0.4751223483491851</v>
       </c>
     </row>
     <row r="32">
@@ -10614,19 +10614,19 @@
         <v>1544</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3168</v>
+        <v>3623</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2615658932760566</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0</v>
+        <v>0.07258798217884591</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5365997850036116</v>
+        <v>0.6137324125252587</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -10635,19 +10635,19 @@
         <v>1544</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3436</v>
+        <v>3717</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2408607892156606</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0</v>
+        <v>0.06280916193959937</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5360558746775625</v>
+        <v>0.5798909619060212</v>
       </c>
     </row>
     <row r="33">
@@ -10739,19 +10739,19 @@
         <v>17774</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11710</v>
+        <v>11837</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>25923</v>
+        <v>25973</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2841288729539838</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1871880929198684</v>
+        <v>0.1892262510353047</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4144071616065038</v>
+        <v>0.4151979612514347</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -10760,19 +10760,19 @@
         <v>9805</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5917</v>
+        <v>5995</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14871</v>
+        <v>14656</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2007386109452175</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1211404893974967</v>
+        <v>0.1227226946984173</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3044382758632888</v>
+        <v>0.3000486135929287</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>36</v>
@@ -10781,19 +10781,19 @@
         <v>27579</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>19536</v>
+        <v>19906</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>36322</v>
+        <v>36409</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2475642761725861</v>
+        <v>0.2475642761725862</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1753645756374891</v>
+        <v>0.1786825779363625</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3260400053419957</v>
+        <v>0.3268254897514661</v>
       </c>
     </row>
     <row r="35">
@@ -10810,19 +10810,19 @@
         <v>8016</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4210</v>
+        <v>4262</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13129</v>
+        <v>13395</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1281490925580644</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06730696440904869</v>
+        <v>0.06812498961226618</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2098775160481076</v>
+        <v>0.2141248268481726</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>18</v>
@@ -10831,19 +10831,19 @@
         <v>11294</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6986</v>
+        <v>6809</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16066</v>
+        <v>16703</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.2312196036892084</v>
+        <v>0.2312196036892085</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1430101623212943</v>
+        <v>0.1393972528199011</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3288991735912836</v>
+        <v>0.3419523654302133</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>30</v>
@@ -10852,19 +10852,19 @@
         <v>19311</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13153</v>
+        <v>13487</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>25841</v>
+        <v>27321</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1733429987622044</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1180645541201882</v>
+        <v>0.1210658048702092</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2319592453284612</v>
+        <v>0.2452436955261386</v>
       </c>
     </row>
     <row r="36">
@@ -10881,19 +10881,19 @@
         <v>13704</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8376</v>
+        <v>8245</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>22322</v>
+        <v>21734</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2190681851255995</v>
+        <v>0.2190681851255994</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1338940329418114</v>
+        <v>0.1318036552896473</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3568331286456874</v>
+        <v>0.3474458458156275</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>11</v>
@@ -10902,19 +10902,19 @@
         <v>6666</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11162</v>
+        <v>11194</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1364771444517552</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06914172903420293</v>
+        <v>0.06915763069553985</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2285006203698394</v>
+        <v>0.2291655721239119</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>26</v>
@@ -10923,19 +10923,19 @@
         <v>20370</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>13639</v>
+        <v>14012</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>29560</v>
+        <v>28873</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1828540274140232</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1224318526436862</v>
+        <v>0.1257791360259435</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2653433198088666</v>
+        <v>0.2591745001169855</v>
       </c>
     </row>
     <row r="37">
@@ -10952,19 +10952,19 @@
         <v>23061</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15873</v>
+        <v>16144</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>30668</v>
+        <v>30415</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.3686538493623523</v>
+        <v>0.3686538493623522</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2537379076335201</v>
+        <v>0.2580806550701801</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4902565003503206</v>
+        <v>0.4862165328051609</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>31</v>
@@ -10973,19 +10973,19 @@
         <v>21081</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>15947</v>
+        <v>15746</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>27125</v>
+        <v>26919</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4315646409138187</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3264783234717131</v>
+        <v>0.3223464969991792</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5553000338363939</v>
+        <v>0.5510782085613914</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>56</v>
@@ -10994,19 +10994,19 @@
         <v>44142</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>35849</v>
+        <v>35260</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>54017</v>
+        <v>54176</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.3962386976511862</v>
+        <v>0.3962386976511861</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3217953471347481</v>
+        <v>0.3165041578370023</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4848791070622774</v>
+        <v>0.4863061328118478</v>
       </c>
     </row>
     <row r="38">
